--- a/docs/LTA1_C/LTA1_C_01.08.24_output.xlsx
+++ b/docs/LTA1_C/LTA1_C_01.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731791275.5400133</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731791276.942581</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731791275.5400133.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731791276.942581.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>290.69</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>289.39</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>1.300000000000011</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -591,95 +613,107 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731791283.4355667</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731791283.4355667.png</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731791283.4355667.png</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>288.6</v>
       </c>
-      <c r="J4" t="n">
-        <v>288.6</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>287.75</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.8500000000000227</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731791287.6018393</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731791289.5950353</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731791287.6018393.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731791289.5950353.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>134.18</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>133.25</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.9300000000000068</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.6899999999999999</v>
       </c>
     </row>
@@ -687,139 +721,157 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731791295.2025354</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731791295.2025354.png</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731791295.2025354.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>132.87</v>
       </c>
-      <c r="J6" t="n">
-        <v>132.87</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>132.1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.7700000000000102</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731791299.403017</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731791299.403017.png</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731791299.403017.png</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>6741</v>
       </c>
-      <c r="J7" t="n">
-        <v>6741</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>6687</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-54</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731791313.9300213</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731791315.618825</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731791313.9300213.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731791315.618825.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>516.65</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>514.3</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>2.350000000000023</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -827,95 +879,107 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731791319.496003</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731791319.496003.png</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731791319.496003.png</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>511.9</v>
       </c>
-      <c r="J9" t="n">
-        <v>511.9</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>506.8</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-5.099999999999966</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731791327.3864686</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731791328.8052583</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731791327.3864686.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731791328.8052583.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>233.13</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>232.5</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.6299999999999955</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -923,95 +987,107 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731791335.4026184</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731791335.4026184.png</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731791335.4026184.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>230.67</v>
       </c>
-      <c r="J11" t="n">
-        <v>230.67</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>229.85</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.8199999999999932</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.36</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731791339.7401004</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731791341.869856</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731791339.7401004.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731791341.869856.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>1051.8</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>1044.8</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>7</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.67</v>
       </c>
     </row>
@@ -1019,51 +1095,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731791343.867929</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731791344.133766</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731791343.867929.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731791344.133766.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>1033.8</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>1042.6</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>8.799999999999955</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.8500000000000001</v>
       </c>
     </row>
@@ -1071,139 +1153,157 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731791347.657714</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731791347.657714.png</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731791347.657714.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>1034</v>
       </c>
-      <c r="J14" t="n">
-        <v>1034</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1030.6</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-3.400000000000091</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.33</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731791352.926013</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731791352.926013.png</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731791352.926013.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>11.872</v>
       </c>
-      <c r="J15" t="n">
-        <v>11.872</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>11.864</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-0.007999999999999119</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731791353.085238</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731791361.1911535</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731791353.085238.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731791361.1911535.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>130.24</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>128.94</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>1.300000000000011</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1211,95 +1311,107 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731791361.8265998</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731791361.8265998.png</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731791361.8265998.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>128.76</v>
       </c>
-      <c r="J17" t="n">
-        <v>128.76</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>128.64</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-0.1200000000000045</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731791366.4205267</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731791375.5228174</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731791366.4205267.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731791375.5228174.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>166.4</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>165.8</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.5999999999999943</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -1307,95 +1419,107 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731791375.7976496</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731791375.7976496.png</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731791375.7976496.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>165.16</v>
       </c>
-      <c r="J19" t="n">
-        <v>165.16</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>164.66</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731791379.2822692</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731791386.7483466</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731791379.2822692.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731791386.7483466.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>50.72</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>50.98</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.259999999999998</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.51</v>
       </c>
     </row>
@@ -1403,95 +1527,107 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731791388.4193144</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731791388.4193144.png</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731791388.4193144.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>50.74</v>
       </c>
-      <c r="J21" t="n">
-        <v>50.74</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>50.57</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-0.1700000000000017</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731791392.0353453</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731791392.2692635</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731791392.0353453.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731791392.2692635.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>1412.4</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>1421.2</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>8.799999999999955</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.62</v>
       </c>
     </row>
@@ -1499,51 +1635,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731791393.0368035</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731791395.6079736</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731791393.0368035.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731791395.6079736.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>1414.4</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>1421</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>6.599999999999909</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.47</v>
       </c>
     </row>
@@ -1551,95 +1693,107 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731791401.2098043</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731791401.2098043.png</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731791401.2098043.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>1413.4</v>
       </c>
-      <c r="J24" t="n">
-        <v>1413.4</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1412.6</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-0.8000000000001819</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731791405.7000363</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731791406.2357678</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731791405.7000363.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731791406.2357678.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>61.24</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>60.9</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.3400000000000034</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.5599999999999999</v>
       </c>
     </row>
@@ -1647,51 +1801,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731791408.584079</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731791410.540868</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731791408.584079.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731791410.540868.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>61.29</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>61.2</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.08999999999999631</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -1699,183 +1859,207 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731791416.5124714</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731791416.5124714.png</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731791416.5124714.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>60.78</v>
       </c>
-      <c r="J27" t="n">
-        <v>60.78</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>60.68</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-0.1000000000000014</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731791424.4325924</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731791424.4325924.png</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731791424.4325924.png</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>57.88</v>
       </c>
-      <c r="J28" t="n">
-        <v>57.88</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>57.2</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-0.6799999999999997</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-1.17</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731791442.7732286</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731791442.7732286.png</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731791442.7732286.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>144.04</v>
       </c>
-      <c r="J29" t="n">
-        <v>144.04</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>142.98</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-1.060000000000002</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.74</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731791446.1707375</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731791454.626642</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731791446.1707375.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731791454.626642.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>21.341</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>21.051</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.2900000000000027</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>1.36</v>
       </c>
     </row>
@@ -1883,95 +2067,107 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731791456.436543</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731791456.436543.png</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731791456.436543.png</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>20.904</v>
       </c>
-      <c r="J31" t="n">
-        <v>20.904</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>20.831</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-0.0730000000000004</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.35</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731791458.3747342</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731791462.7352104</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731791458.3747342.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731791462.7352104.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>684.8</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>681.8</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>3</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -1979,139 +2175,157 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731791465.552941</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731791465.552941.png</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731791465.552941.png</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>680.05</v>
       </c>
-      <c r="J33" t="n">
-        <v>680.05</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>679.2</v>
+      </c>
+      <c r="M33" t="n">
+        <v>-0.8499999999999091</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731791470.076515</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1731791470.076515.png</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
+          <t>./test_images/BSPB1731791470.076515.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>377.53</v>
       </c>
-      <c r="J34" t="n">
-        <v>377.53</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>378.22</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-0.6900000000000546</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731791470.173098</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731791479.2823367</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/FEES1731791470.173098.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/FEES1731791479.2823367.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>0.10002</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>0.09992000000000001</v>
       </c>
-      <c r="K35" t="n">
-        <v>0.0001000000000000029</v>
-      </c>
-      <c r="L35" t="n">
+      <c r="M35" t="n">
+        <v>9.999999999998899e-05</v>
+      </c>
+      <c r="N35" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -2119,139 +2333,157 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731791481.3727179</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>./test_images/FEES1731791481.3727179.png</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
+          <t>./test_images/FEES1731791481.3727179.png</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>0.09948000000000001</v>
       </c>
-      <c r="J36" t="n">
-        <v>0.09948000000000001</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>0.09927999999999999</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-0.0002000000000000196</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731791493.986805</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>./test_images/HYDR1731791493.986805.png</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
+          <t>./test_images/HYDR1731791493.986805.png</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>0.6028</v>
       </c>
-      <c r="J37" t="n">
-        <v>0.6028</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>0.6012999999999999</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-0.001500000000000057</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731791496.808797</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731791497.8737147</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/MXI1731791496.808797.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/MXI1731791497.8737147.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>3032.1</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>3031.55</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.5499999999997272</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -2259,51 +2491,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731791498.6160033</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731791500.3619983</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/MXI1731791498.6160033.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/MXI1731791500.3619983.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>3026.25</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>3033.55</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>7.300000000000182</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -2311,51 +2549,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731791500.7475088</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731791503.5351093</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/MXI1731791500.7475088.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/MXI1731791503.5351093.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>3026.95</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>3025</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>-1.949999999999818</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -2363,95 +2607,107 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731791505.2957106</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731791505.2957106.png</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731791505.2957106.png</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>3018</v>
       </c>
-      <c r="J41" t="n">
-        <v>3018</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>2996.05</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-21.94999999999982</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.73</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731791517.1262498</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731791518.4393077</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731791517.1262498.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731791518.4393077.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>34.61</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>34.935</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.3250000000000028</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.9400000000000001</v>
       </c>
     </row>
@@ -2459,44 +2715,50 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731791518.9514267</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>./test_images/RUAL1731791518.9514267.png</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
+          <t>./test_images/RUAL1731791518.9514267.png</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>34.65</v>
       </c>
-      <c r="J43" t="n">
-        <v>34.65</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>34.425</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-0.2250000000000014</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.65</v>
       </c>
     </row>
   </sheetData>
@@ -2557,19 +2819,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.900000000000091</v>
+        <v>-16.04999999999973</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>1.475000000000023</v>
+        <v>-4.012499999999932</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2</v>
+        <v>-0.53</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="3">
@@ -2579,19 +2841,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4299999999999997</v>
+        <v>0.3299999999999983</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1433333333333332</v>
+        <v>0.1099999999999994</v>
       </c>
       <c r="E3" t="n">
-        <v>0.71</v>
+        <v>0.5499999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="4">
@@ -2601,19 +2863,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.39999999999986</v>
+        <v>14.59999999999968</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>5.133333333333288</v>
+        <v>4.866666666666561</v>
       </c>
       <c r="E4" t="n">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="F4" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="5">
@@ -2623,19 +2885,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.79999999999995</v>
+        <v>12.39999999999986</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>5.266666666666652</v>
+        <v>4.133333333333288</v>
       </c>
       <c r="E5" t="n">
-        <v>1.52</v>
+        <v>1.19</v>
       </c>
       <c r="F5" t="n">
-        <v>0.51</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6">
@@ -2645,19 +2907,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2900000000000027</v>
+        <v>0.2170000000000023</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1450000000000014</v>
+        <v>0.1085000000000012</v>
       </c>
       <c r="E6" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="F6" t="n">
-        <v>0.68</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
@@ -2667,19 +2929,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2.150000000000091</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>1.5</v>
+        <v>1.075000000000045</v>
       </c>
       <c r="E7" t="n">
-        <v>0.44</v>
+        <v>0.32</v>
       </c>
       <c r="F7" t="n">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="8">
@@ -2689,19 +2951,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.300000000000011</v>
+        <v>0.4499999999999886</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6500000000000057</v>
+        <v>0.2249999999999943</v>
       </c>
       <c r="E8" t="n">
-        <v>0.45</v>
+        <v>0.16</v>
       </c>
       <c r="F8" t="n">
-        <v>0.22</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="9">
@@ -2711,19 +2973,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3250000000000028</v>
+        <v>0.1000000000000014</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1625000000000014</v>
+        <v>0.05000000000000071</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9400000000000001</v>
+        <v>0.29</v>
       </c>
       <c r="F9" t="n">
-        <v>0.47</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="10">
@@ -2733,19 +2995,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.350000000000023</v>
+        <v>-2.749999999999943</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>1.175000000000011</v>
+        <v>-1.374999999999972</v>
       </c>
       <c r="E10" t="n">
-        <v>0.45</v>
+        <v>-0.55</v>
       </c>
       <c r="F10" t="n">
-        <v>0.22</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="11">
@@ -2755,19 +3017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5999999999999943</v>
+        <v>0.09999999999999432</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2999999999999972</v>
+        <v>0.04999999999999716</v>
       </c>
       <c r="E11" t="n">
-        <v>0.36</v>
+        <v>0.06</v>
       </c>
       <c r="F11" t="n">
-        <v>0.18</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="12">
@@ -2777,19 +3039,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6299999999999955</v>
+        <v>-0.1899999999999977</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3149999999999977</v>
+        <v>-0.09499999999999886</v>
       </c>
       <c r="E12" t="n">
-        <v>0.27</v>
+        <v>-0.08999999999999997</v>
       </c>
       <c r="F12" t="n">
-        <v>0.14</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="13">
@@ -2799,19 +3061,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.259999999999998</v>
+        <v>0.08999999999999631</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>0.129999999999999</v>
+        <v>0.04499999999999815</v>
       </c>
       <c r="E13" t="n">
-        <v>0.51</v>
+        <v>0.17</v>
       </c>
       <c r="F13" t="n">
-        <v>0.26</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="14">
@@ -2821,19 +3083,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.300000000000011</v>
+        <v>1.180000000000007</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6500000000000057</v>
+        <v>0.5900000000000034</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="15">
@@ -2843,19 +3105,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9300000000000068</v>
+        <v>0.1599999999999966</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4650000000000034</v>
+        <v>0.07999999999999829</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.11</v>
       </c>
       <c r="F15" t="n">
-        <v>0.34</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="16">
@@ -2865,19 +3127,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0001000000000000029</v>
+        <v>-0.0001000000000000306</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>5.000000000000143e-05</v>
+        <v>-5.000000000001531e-05</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.05</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="17">
@@ -2887,19 +3149,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-54</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-54</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-0.8</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="18">
@@ -2909,19 +3171,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>-0.001500000000000057</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>-0.001500000000000057</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="19">
@@ -2931,19 +3193,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-0.007999999999999119</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>-0.007999999999999119</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>-0.06999999999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="20">
@@ -2953,19 +3215,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-0.6799999999999997</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-0.6799999999999997</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-1.17</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-1.17</v>
       </c>
     </row>
     <row r="21">
@@ -2975,19 +3237,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>-0.6900000000000546</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>-0.6900000000000546</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>-0.18</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="22">
@@ -2997,19 +3259,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>-1.060000000000002</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>-1.060000000000002</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>-0.74</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>-0.74</v>
       </c>
     </row>
     <row r="23">
